--- a/ATYR.xlsx
+++ b/ATYR.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB14AF16-5605-443C-93A9-B164C384A37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81881F62-51AA-4DC4-89B3-13FBF76EF50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="750" windowWidth="23385" windowHeight="13140" activeTab="2" xr2:uid="{1B6FF029-A03D-4586-8AFE-F39852695A08}"/>
+    <workbookView xWindow="3300" yWindow="735" windowWidth="23385" windowHeight="13140" xr2:uid="{1B6FF029-A03D-4586-8AFE-F39852695A08}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
     <sheet name="Model" sheetId="1" r:id="rId2"/>
     <sheet name="Efzofitimod" sheetId="3" r:id="rId3"/>
+    <sheet name="NRP2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
   <si>
     <t>Price</t>
   </si>
@@ -145,12 +146,6 @@
     <t>Clinical Trials</t>
   </si>
   <si>
-    <t>Regulatory</t>
-  </si>
-  <si>
-    <t>Q124</t>
-  </si>
-  <si>
     <t>NRP2</t>
   </si>
   <si>
@@ -167,13 +162,100 @@
   </si>
   <si>
     <t>https://pmc.ncbi.nlm.nih.gov/articles/PMC10099656/</t>
+  </si>
+  <si>
+    <t>Efzofitimod</t>
+  </si>
+  <si>
+    <t>ATYR1923</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>ROIC</t>
+  </si>
+  <si>
+    <t>Maturity</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>P/B</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>US Patient Pool</t>
+  </si>
+  <si>
+    <t>Treated</t>
+  </si>
+  <si>
+    <t>Approval Price</t>
+  </si>
+  <si>
+    <t>Failure Price</t>
+  </si>
+  <si>
+    <t>Phase II "EFZO-CONNECT"</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>Phase III "EFZO-FIT"</t>
+  </si>
+  <si>
+    <t>Pulmonary Sarcoidosis</t>
+  </si>
+  <si>
+    <t>https://investors.atyrpharma.com/news-releases/news-release-details/atyr-pharma-announces-findings-interim-analysis-ongoing-phase-2</t>
+  </si>
+  <si>
+    <t>https://investors.atyrpharma.com/news-releases/news-release-details/atyr-pharma-announces-fourth-positive-dsmb-review-efzofitimod</t>
+  </si>
+  <si>
+    <t>https://investors.atyrpharma.com/news-releases/news-release-details/atyr-pharma-announces-publication-demonstrating-efzofitimods</t>
+  </si>
+  <si>
+    <t>https://investors.atyrpharma.com/news-releases/news-release-details/atyr-pharma-announces-publication-demonstrating-efficacy</t>
+  </si>
+  <si>
+    <t>ILD (sarcoidosis); Pulmonary Sarcoidosis</t>
+  </si>
+  <si>
+    <t>"10-20% of patients w/ sarcoidosis are Pulmonary Sarcoidosis"</t>
+  </si>
+  <si>
+    <t>CEO:</t>
+  </si>
+  <si>
+    <t>Sanjay S. Shukla</t>
+  </si>
+  <si>
+    <t>Results in Q325</t>
+  </si>
+  <si>
+    <t>Results in Q325 for Efzofitimod</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -191,6 +273,14 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -302,7 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -332,6 +422,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -354,15 +451,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>36634</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>7327</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>65942</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -722,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79437250-B15D-47C9-85AE-E4EC02F4F4B5}">
-  <dimension ref="B2:P7"/>
+  <dimension ref="B2:Q13"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -739,7 +836,7 @@
     <col min="7" max="7" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
         <v>25</v>
       </c>
@@ -765,32 +862,38 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
         <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
       </c>
       <c r="G3" s="6"/>
       <c r="O3" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P3" s="2">
+        <f>89</f>
+        <v>89</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="D4" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G4" s="6"/>
       <c r="O4" t="s">
@@ -798,25 +901,31 @@
       </c>
       <c r="P4" s="2">
         <f>P3*P2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+        <v>471.7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" s="5"/>
       <c r="D5" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G5" s="6"/>
       <c r="O5" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P5" s="2">
+        <f>10.36+66</f>
+        <v>76.36</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -824,20 +933,50 @@
       <c r="O6" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P6" s="2">
+        <f>10.95+0.75</f>
+        <v>11.7</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="O7" t="s">
         <v>5</v>
       </c>
       <c r="P7" s="2">
         <f>P4+P6-P5</f>
-        <v>0</v>
+        <v>407.03999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="O9" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="1">
+        <f>75/P3</f>
+        <v>0.84269662921348309</v>
+      </c>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="O11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="O13" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" location="Efzofitimod!A1" display="Efzofitimod" xr:uid="{254933A8-C39D-484F-AB25-131061FFD12B}"/>
+    <hyperlink ref="E3" location="'NRP2'!A1" display="NRP2" xr:uid="{6CFE78E3-7D71-4F66-9270-C7F729AABABA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -845,182 +984,1206 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F299FD-5113-4897-BCE2-57A3926831F4}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:DJ29"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2">
+    <row r="2" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="20">
+        <v>2022</v>
+      </c>
+      <c r="F2" s="20">
         <v>2023</v>
       </c>
-      <c r="F2">
-        <f>E2+1</f>
+      <c r="G2" s="20">
+        <f>F2+1</f>
         <v>2024</v>
       </c>
-      <c r="G2">
-        <f>F2+1</f>
+      <c r="H2" s="20">
+        <f>G2+1</f>
         <v>2025</v>
       </c>
-      <c r="H2">
-        <f t="shared" ref="H2:P2" si="0">G2+1</f>
+      <c r="I2" s="20">
+        <f t="shared" ref="I2:Q2" si="0">H2+1</f>
         <v>2026</v>
       </c>
-      <c r="I2">
+      <c r="J2" s="20">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="J2">
+      <c r="K2" s="20">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="K2">
+      <c r="L2" s="20">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="L2">
+      <c r="M2" s="20">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="M2">
+      <c r="N2" s="20">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="N2">
+      <c r="O2" s="20">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="O2">
+      <c r="P2" s="20">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="P2">
+      <c r="Q2" s="20">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3"/>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:114" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="C3" s="19">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19">
+        <v>10.39</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="G3" s="19">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H3" s="19">
+        <v>0</v>
+      </c>
+      <c r="I3" s="19">
+        <v>0</v>
+      </c>
+      <c r="J3" s="19">
+        <v>0</v>
+      </c>
+      <c r="K3" s="19">
+        <v>0</v>
+      </c>
+      <c r="L3" s="19">
+        <v>0</v>
+      </c>
+      <c r="M3" s="19">
+        <v>0</v>
+      </c>
+      <c r="N3" s="19">
+        <v>0</v>
+      </c>
+      <c r="O3" s="19">
+        <v>0</v>
+      </c>
+      <c r="P3" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="C5" s="2">
+        <f>C3-C4</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <f>E3-E4</f>
+        <v>10.39</v>
+      </c>
+      <c r="F5" s="2">
+        <f>F3-F4</f>
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="G5" s="2">
+        <f>G3-G4</f>
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" ref="H5:Q5" si="1">H3-H4</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2">
+        <v>11.8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>42.8</v>
+      </c>
+      <c r="F6" s="2">
+        <v>42.3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>54.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="C7" s="2">
+        <v>3.96</v>
+      </c>
+      <c r="E7" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="F7" s="2">
+        <v>12.99</v>
+      </c>
+      <c r="G7" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="H7" s="2">
+        <f>G7*1.01</f>
+        <v>13.938000000000001</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" ref="I7:Q7" si="2">H7*1.01</f>
+        <v>14.077380000000002</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="2"/>
+        <v>14.218153800000001</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="2"/>
+        <v>14.360335338000002</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="2"/>
+        <v>14.503938691380002</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="2"/>
+        <v>14.648978078293801</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="2"/>
+        <v>14.795467859076739</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="2"/>
+        <v>14.943422537667507</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="2"/>
+        <v>15.092856763044182</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="2"/>
+        <v>15.243785330674624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="C8" s="2">
+        <f>SUM(C6:C7)</f>
+        <v>15.760000000000002</v>
+      </c>
+      <c r="E8" s="2">
+        <f>SUM(E6:E7)</f>
+        <v>56.699999999999996</v>
+      </c>
+      <c r="F8" s="2">
+        <f>SUM(F6:F7)</f>
+        <v>55.29</v>
+      </c>
+      <c r="G8" s="2">
+        <f>SUM(G6:G7)</f>
+        <v>68.2</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" ref="H8:Q8" si="3">SUM(H6:H7)</f>
+        <v>13.938000000000001</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="3"/>
+        <v>14.077380000000002</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="3"/>
+        <v>14.218153800000001</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="3"/>
+        <v>14.360335338000002</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="3"/>
+        <v>14.503938691380002</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="3"/>
+        <v>14.648978078293801</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="3"/>
+        <v>14.795467859076739</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="3"/>
+        <v>14.943422537667507</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="3"/>
+        <v>15.092856763044182</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="3"/>
+        <v>15.243785330674624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="C9" s="2">
+        <f>C5-C8</f>
+        <v>-15.760000000000002</v>
+      </c>
+      <c r="E9" s="2">
+        <f>E5-E8</f>
+        <v>-46.309999999999995</v>
+      </c>
+      <c r="F9" s="2">
+        <f>F5-F8</f>
+        <v>-54.936999999999998</v>
+      </c>
+      <c r="G9" s="2">
+        <f>G5-G8</f>
+        <v>-67.965000000000003</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" ref="H9:Q9" si="4">H5-H8</f>
+        <v>-13.938000000000001</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="4"/>
+        <v>-14.077380000000002</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="4"/>
+        <v>-14.218153800000001</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="4"/>
+        <v>-14.360335338000002</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="4"/>
+        <v>-14.503938691380002</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="4"/>
+        <v>-14.648978078293801</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="4"/>
+        <v>-14.795467859076739</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="4"/>
+        <v>-14.943422537667507</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="4"/>
+        <v>-15.092856763044182</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="4"/>
+        <v>-15.243785330674624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="C10" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="H10" s="2">
+        <f>G21*$T$17</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" ref="I10:Q10" si="5">H21*$T$17</f>
+        <v>0.91491199999999995</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="5"/>
+        <v>0.70431251199999989</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="5"/>
+        <v>0.48809105139199987</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="5"/>
+        <v>0.26613514280627182</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="5"/>
+        <v>3.833028602909213E-2</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.19544007864714322</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.43529460565072536</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.68135407994381714</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.93374145343162507</v>
+      </c>
+    </row>
+    <row r="11" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="C11" s="2">
+        <f>C9+C10</f>
+        <v>-14.860000000000001</v>
+      </c>
+      <c r="E11" s="2">
+        <f>E9+E10</f>
+        <v>-45.249999999999993</v>
+      </c>
+      <c r="F11" s="2">
+        <f>F9+F10</f>
+        <v>-50.436999999999998</v>
+      </c>
+      <c r="G11" s="2">
+        <f>G9+G10</f>
+        <v>-64.064999999999998</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" ref="H11:Q11" si="6">H9+H10</f>
+        <v>-12.818000000000001</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="6"/>
+        <v>-13.162468000000002</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="6"/>
+        <v>-13.513841288000002</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="6"/>
+        <v>-13.872244286608002</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="6"/>
+        <v>-14.23780354857373</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="6"/>
+        <v>-14.610647792264709</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="6"/>
+        <v>-14.990907937723883</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="6"/>
+        <v>-15.378717143318232</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="6"/>
+        <v>-15.774210842987999</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="6"/>
+        <v>-16.177526784106249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <f>H11*0.2</f>
+        <v>-2.5636000000000005</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" ref="I12:Q12" si="7">I11*0.2</f>
+        <v>-2.6324936000000005</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="7"/>
+        <v>-2.7027682576000007</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="7"/>
+        <v>-2.7744488573216004</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="7"/>
+        <v>-2.8475607097147462</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="7"/>
+        <v>-2.9221295584529421</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="7"/>
+        <v>-2.9981815875447766</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="7"/>
+        <v>-3.0757434286636465</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="7"/>
+        <v>-3.1548421685976002</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" si="7"/>
+        <v>-3.2355053568212497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+      <c r="C13" s="2">
+        <f>C11-C12</f>
+        <v>-14.860000000000001</v>
+      </c>
+      <c r="E13" s="2">
+        <f>E11-E12</f>
+        <v>-45.249999999999993</v>
+      </c>
+      <c r="F13" s="2">
+        <f>F11-F12</f>
+        <v>-50.436999999999998</v>
+      </c>
+      <c r="G13" s="2">
+        <f>G11-G12</f>
+        <v>-64.064999999999998</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" ref="H13:Q13" si="8">H11-H12</f>
+        <v>-10.2544</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="8"/>
+        <v>-10.529974400000002</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="8"/>
+        <v>-10.811073030400001</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="8"/>
+        <v>-11.097795429286402</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="8"/>
+        <v>-11.390242838858985</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="8"/>
+        <v>-11.688518233811767</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="8"/>
+        <v>-11.992726350179106</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="8"/>
+        <v>-12.302973714654586</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="8"/>
+        <v>-12.619368674390399</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="8"/>
+        <v>-12.942021427284999</v>
+      </c>
+      <c r="R13" s="2">
+        <f>Q13*(1+$T$18)</f>
+        <v>-12.812601213012149</v>
+      </c>
+      <c r="S13" s="2">
+        <f t="shared" ref="S13:CD13" si="9">R13*(1+$T$18)</f>
+        <v>-12.684475200882028</v>
+      </c>
+      <c r="T13" s="2">
+        <f t="shared" si="9"/>
+        <v>-12.557630448873208</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" si="9"/>
+        <v>-12.432054144384477</v>
+      </c>
+      <c r="V13" s="2">
+        <f t="shared" si="9"/>
+        <v>-12.307733602940631</v>
+      </c>
+      <c r="W13" s="2">
+        <f t="shared" si="9"/>
+        <v>-12.184656266911224</v>
+      </c>
+      <c r="X13" s="2">
+        <f t="shared" si="9"/>
+        <v>-12.062809704242111</v>
+      </c>
+      <c r="Y13" s="2">
+        <f t="shared" si="9"/>
+        <v>-11.942181607199689</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="9"/>
+        <v>-11.822759791127693</v>
+      </c>
+      <c r="AA13" s="2">
+        <f t="shared" si="9"/>
+        <v>-11.704532193216416</v>
+      </c>
+      <c r="AB13" s="2">
+        <f t="shared" si="9"/>
+        <v>-11.587486871284252</v>
+      </c>
+      <c r="AC13" s="2">
+        <f t="shared" si="9"/>
+        <v>-11.47161200257141</v>
+      </c>
+      <c r="AD13" s="2">
+        <f t="shared" si="9"/>
+        <v>-11.356895882545697</v>
+      </c>
+      <c r="AE13" s="2">
+        <f t="shared" si="9"/>
+        <v>-11.24332692372024</v>
+      </c>
+      <c r="AF13" s="2">
+        <f t="shared" si="9"/>
+        <v>-11.130893654483037</v>
+      </c>
+      <c r="AG13" s="2">
+        <f t="shared" si="9"/>
+        <v>-11.019584717938207</v>
+      </c>
+      <c r="AH13" s="2">
+        <f t="shared" si="9"/>
+        <v>-10.909388870758825</v>
+      </c>
+      <c r="AI13" s="2">
+        <f t="shared" si="9"/>
+        <v>-10.800294982051236</v>
+      </c>
+      <c r="AJ13" s="2">
+        <f t="shared" si="9"/>
+        <v>-10.692292032230723</v>
+      </c>
+      <c r="AK13" s="2">
+        <f t="shared" si="9"/>
+        <v>-10.585369111908415</v>
+      </c>
+      <c r="AL13" s="2">
+        <f t="shared" si="9"/>
+        <v>-10.479515420789332</v>
+      </c>
+      <c r="AM13" s="2">
+        <f t="shared" si="9"/>
+        <v>-10.374720266581438</v>
+      </c>
+      <c r="AN13" s="2">
+        <f t="shared" si="9"/>
+        <v>-10.270973063915623</v>
+      </c>
+      <c r="AO13" s="2">
+        <f t="shared" si="9"/>
+        <v>-10.168263333276466</v>
+      </c>
+      <c r="AP13" s="2">
+        <f t="shared" si="9"/>
+        <v>-10.066580699943701</v>
+      </c>
+      <c r="AQ13" s="2">
+        <f t="shared" si="9"/>
+        <v>-9.965914892944264</v>
+      </c>
+      <c r="AR13" s="2">
+        <f t="shared" si="9"/>
+        <v>-9.866255744014822</v>
+      </c>
+      <c r="AS13" s="2">
+        <f t="shared" si="9"/>
+        <v>-9.7675931865746737</v>
+      </c>
+      <c r="AT13" s="2">
+        <f t="shared" si="9"/>
+        <v>-9.6699172547089276</v>
+      </c>
+      <c r="AU13" s="2">
+        <f t="shared" si="9"/>
+        <v>-9.5732180821618389</v>
+      </c>
+      <c r="AV13" s="2">
+        <f t="shared" si="9"/>
+        <v>-9.47748590134022</v>
+      </c>
+      <c r="AW13" s="2">
+        <f t="shared" si="9"/>
+        <v>-9.3827110423268181</v>
+      </c>
+      <c r="AX13" s="2">
+        <f t="shared" si="9"/>
+        <v>-9.2888839319035501</v>
+      </c>
+      <c r="AY13" s="2">
+        <f t="shared" si="9"/>
+        <v>-9.1959950925845142</v>
+      </c>
+      <c r="AZ13" s="2">
+        <f t="shared" si="9"/>
+        <v>-9.1040351416586685</v>
+      </c>
+      <c r="BA13" s="2">
+        <f t="shared" si="9"/>
+        <v>-9.0129947902420824</v>
+      </c>
+      <c r="BB13" s="2">
+        <f t="shared" si="9"/>
+        <v>-8.9228648423396617</v>
+      </c>
+      <c r="BC13" s="2">
+        <f t="shared" si="9"/>
+        <v>-8.8336361939162646</v>
+      </c>
+      <c r="BD13" s="2">
+        <f t="shared" si="9"/>
+        <v>-8.7452998319771016</v>
+      </c>
+      <c r="BE13" s="2">
+        <f t="shared" si="9"/>
+        <v>-8.6578468336573309</v>
+      </c>
+      <c r="BF13" s="2">
+        <f t="shared" si="9"/>
+        <v>-8.5712683653207566</v>
+      </c>
+      <c r="BG13" s="2">
+        <f t="shared" si="9"/>
+        <v>-8.4855556816675488</v>
+      </c>
+      <c r="BH13" s="2">
+        <f t="shared" si="9"/>
+        <v>-8.4007001248508733</v>
+      </c>
+      <c r="BI13" s="2">
+        <f t="shared" si="9"/>
+        <v>-8.3166931236023647</v>
+      </c>
+      <c r="BJ13" s="2">
+        <f t="shared" si="9"/>
+        <v>-8.233526192366341</v>
+      </c>
+      <c r="BK13" s="2">
+        <f t="shared" si="9"/>
+        <v>-8.1511909304426773</v>
+      </c>
+      <c r="BL13" s="2">
+        <f t="shared" si="9"/>
+        <v>-8.069679021138251</v>
+      </c>
+      <c r="BM13" s="2">
+        <f t="shared" si="9"/>
+        <v>-7.9889822309268688</v>
+      </c>
+      <c r="BN13" s="2">
+        <f t="shared" si="9"/>
+        <v>-7.9090924086176004</v>
+      </c>
+      <c r="BO13" s="2">
+        <f t="shared" si="9"/>
+        <v>-7.8300014845314241</v>
+      </c>
+      <c r="BP13" s="2">
+        <f t="shared" si="9"/>
+        <v>-7.7517014696861102</v>
+      </c>
+      <c r="BQ13" s="2">
+        <f t="shared" si="9"/>
+        <v>-7.6741844549892493</v>
+      </c>
+      <c r="BR13" s="2">
+        <f t="shared" si="9"/>
+        <v>-7.5974426104393569</v>
+      </c>
+      <c r="BS13" s="2">
+        <f t="shared" si="9"/>
+        <v>-7.5214681843349629</v>
+      </c>
+      <c r="BT13" s="2">
+        <f t="shared" si="9"/>
+        <v>-7.4462535024916132</v>
+      </c>
+      <c r="BU13" s="2">
+        <f t="shared" si="9"/>
+        <v>-7.3717909674666968</v>
+      </c>
+      <c r="BV13" s="2">
+        <f t="shared" si="9"/>
+        <v>-7.2980730577920294</v>
+      </c>
+      <c r="BW13" s="2">
+        <f t="shared" si="9"/>
+        <v>-7.2250923272141092</v>
+      </c>
+      <c r="BX13" s="2">
+        <f t="shared" si="9"/>
+        <v>-7.1528414039419683</v>
+      </c>
+      <c r="BY13" s="2">
+        <f t="shared" si="9"/>
+        <v>-7.0813129899025489</v>
+      </c>
+      <c r="BZ13" s="2">
+        <f t="shared" si="9"/>
+        <v>-7.0104998600035229</v>
+      </c>
+      <c r="CA13" s="2">
+        <f t="shared" si="9"/>
+        <v>-6.9403948614034876</v>
+      </c>
+      <c r="CB13" s="2">
+        <f t="shared" si="9"/>
+        <v>-6.8709909127894528</v>
+      </c>
+      <c r="CC13" s="2">
+        <f t="shared" si="9"/>
+        <v>-6.802281003661558</v>
+      </c>
+      <c r="CD13" s="2">
+        <f t="shared" si="9"/>
+        <v>-6.7342581936249424</v>
+      </c>
+      <c r="CE13" s="2">
+        <f t="shared" ref="CE13:DJ13" si="10">CD13*(1+$T$18)</f>
+        <v>-6.666915611688693</v>
+      </c>
+      <c r="CF13" s="2">
+        <f t="shared" si="10"/>
+        <v>-6.6002464555718063</v>
+      </c>
+      <c r="CG13" s="2">
+        <f t="shared" si="10"/>
+        <v>-6.5342439910160879</v>
+      </c>
+      <c r="CH13" s="2">
+        <f t="shared" si="10"/>
+        <v>-6.4689015511059269</v>
+      </c>
+      <c r="CI13" s="2">
+        <f t="shared" si="10"/>
+        <v>-6.4042125355948674</v>
+      </c>
+      <c r="CJ13" s="2">
+        <f t="shared" si="10"/>
+        <v>-6.3401704102389189</v>
+      </c>
+      <c r="CK13" s="2">
+        <f t="shared" si="10"/>
+        <v>-6.2767687061365294</v>
+      </c>
+      <c r="CL13" s="2">
+        <f t="shared" si="10"/>
+        <v>-6.2140010190751642</v>
+      </c>
+      <c r="CM13" s="2">
+        <f t="shared" si="10"/>
+        <v>-6.1518610088844126</v>
+      </c>
+      <c r="CN13" s="2">
+        <f t="shared" si="10"/>
+        <v>-6.0903423987955687</v>
+      </c>
+      <c r="CO13" s="2">
+        <f t="shared" si="10"/>
+        <v>-6.0294389748076131</v>
+      </c>
+      <c r="CP13" s="2">
+        <f t="shared" si="10"/>
+        <v>-5.9691445850595368</v>
+      </c>
+      <c r="CQ13" s="2">
+        <f t="shared" si="10"/>
+        <v>-5.9094531392089413</v>
+      </c>
+      <c r="CR13" s="2">
+        <f t="shared" si="10"/>
+        <v>-5.8503586078168519</v>
+      </c>
+      <c r="CS13" s="2">
+        <f t="shared" si="10"/>
+        <v>-5.7918550217386837</v>
+      </c>
+      <c r="CT13" s="2">
+        <f t="shared" si="10"/>
+        <v>-5.7339364715212966</v>
+      </c>
+      <c r="CU13" s="2">
+        <f t="shared" si="10"/>
+        <v>-5.6765971068060832</v>
+      </c>
+      <c r="CV13" s="2">
+        <f t="shared" si="10"/>
+        <v>-5.6198311357380222</v>
+      </c>
+      <c r="CW13" s="2">
+        <f t="shared" si="10"/>
+        <v>-5.5636328243806421</v>
+      </c>
+      <c r="CX13" s="2">
+        <f t="shared" si="10"/>
+        <v>-5.507996496136836</v>
+      </c>
+      <c r="CY13" s="2">
+        <f t="shared" si="10"/>
+        <v>-5.4529165311754673</v>
+      </c>
+      <c r="CZ13" s="2">
+        <f t="shared" si="10"/>
+        <v>-5.3983873658637123</v>
+      </c>
+      <c r="DA13" s="2">
+        <f t="shared" si="10"/>
+        <v>-5.3444034922050747</v>
+      </c>
+      <c r="DB13" s="2">
+        <f t="shared" si="10"/>
+        <v>-5.2909594572830239</v>
+      </c>
+      <c r="DC13" s="2">
+        <f t="shared" si="10"/>
+        <v>-5.2380498627101932</v>
+      </c>
+      <c r="DD13" s="2">
+        <f t="shared" si="10"/>
+        <v>-5.1856693640830915</v>
+      </c>
+      <c r="DE13" s="2">
+        <f t="shared" si="10"/>
+        <v>-5.1338126704422606</v>
+      </c>
+      <c r="DF13" s="2">
+        <f t="shared" si="10"/>
+        <v>-5.0824745437378382</v>
+      </c>
+      <c r="DG13" s="2">
+        <f t="shared" si="10"/>
+        <v>-5.0316497983004602</v>
+      </c>
+      <c r="DH13" s="2">
+        <f t="shared" si="10"/>
+        <v>-4.9813333003174556</v>
+      </c>
+      <c r="DI13" s="2">
+        <f t="shared" si="10"/>
+        <v>-4.9315199673142809</v>
+      </c>
+      <c r="DJ13" s="2">
+        <f t="shared" si="10"/>
+        <v>-4.882204767641138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="E14" s="2">
+        <v>28.42</v>
+      </c>
+      <c r="F14" s="2">
+        <v>53.6</v>
+      </c>
+      <c r="G14" s="2">
+        <v>74.260000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+      <c r="E15" s="1">
+        <f>E13/E14</f>
+        <v>-1.5921885995777618</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" ref="F15:G15" si="11">F13/F14</f>
+        <v>-0.94098880597014922</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="11"/>
+        <v>-0.86271209264745485</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+      <c r="S17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T17" s="17">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+      <c r="S18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T18" s="17">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+      <c r="F19" s="17">
+        <f>F7/E7-1</f>
+        <v>-6.5467625899280568E-2</v>
+      </c>
+      <c r="G19" s="17">
+        <f>G7/F7-1</f>
+        <v>6.2355658198614439E-2</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T19" s="17">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T20" s="2">
+        <f>NPV(T19,H13:XFD13)+Main!P5-Main!P6</f>
+        <v>-62.322090470002408</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+      <c r="C21" s="2">
+        <f>72-16</f>
+        <v>56</v>
+      </c>
+      <c r="G21" s="2">
+        <v>56</v>
+      </c>
+      <c r="H21" s="2">
+        <f>G21+H13</f>
+        <v>45.745599999999996</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" ref="I21:Q21" si="12">H21+I13</f>
+        <v>35.215625599999996</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="12"/>
+        <v>24.404552569599993</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="12"/>
+        <v>13.306757140313591</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="12"/>
+        <v>1.9165143014546064</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="12"/>
+        <v>-9.7720039323571601</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="12"/>
+        <v>-21.764730282536267</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" si="12"/>
+        <v>-34.067703997190854</v>
+      </c>
+      <c r="P21" s="2">
+        <f t="shared" si="12"/>
+        <v>-46.687072671581255</v>
+      </c>
+      <c r="Q21" s="2">
+        <f t="shared" si="12"/>
+        <v>-59.629094098866254</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T21" s="1">
+        <f>T20/Main!P3</f>
+        <v>-0.70024820752811689</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+      <c r="T22" s="17">
+        <f>T21/Main!P2-1</f>
+        <v>-1.1321223033071919</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4.6829999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="2">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1034,16 +2197,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72EB33E-E1FF-4ECC-8F74-DECD74E92A04}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1055,25 +2218,37 @@
       <c r="B2" t="s">
         <v>33</v>
       </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>32</v>
       </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>26</v>
       </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>27</v>
       </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1082,14 +2257,400 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>42</v>
+      <c r="C8" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>2025</v>
+      </c>
+      <c r="D18">
+        <f>C18+1</f>
+        <v>2026</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ref="E18:Q18" si="0">D18+1</f>
+        <v>2027</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="2">
+        <f>150000/1000000</f>
+        <v>0.15</v>
+      </c>
+      <c r="D19">
+        <f>C19*1.03</f>
+        <v>0.1545</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:Q19" si="1">D19*1.03</f>
+        <v>0.159135</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0.16390905</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0.16882632150000002</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>0.17389111114500003</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>0.17910784447935002</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>0.18448107981373052</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>0.19001551220814245</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>0.19571597757438672</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>0.20158745690161833</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>0.20763508060866689</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>0.21386413302692692</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>0.22028005701773473</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>0.22688845872826677</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20">
+        <f>E19*0.2</f>
+        <v>3.1827000000000001E-2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20:Q20" si="2">F19*0.2</f>
+        <v>3.2781810000000002E-2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>3.3765264300000007E-2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>3.4778222229000004E-2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>3.5821568895870008E-2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>3.6896215962746108E-2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>3.8003102441628495E-2</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>3.9143195514877348E-2</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>4.0317491380323672E-2</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>4.152701612173338E-2</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="2"/>
+        <v>4.2772826605385388E-2</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="2"/>
+        <v>4.4056011403546952E-2</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="2"/>
+        <v>4.5377691745653356E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>18000</v>
+      </c>
+      <c r="F21" s="2">
+        <v>18000</v>
+      </c>
+      <c r="G21" s="2">
+        <v>18000</v>
+      </c>
+      <c r="H21" s="2">
+        <v>18000</v>
+      </c>
+      <c r="I21" s="2">
+        <v>18000</v>
+      </c>
+      <c r="J21" s="2">
+        <v>18000</v>
+      </c>
+      <c r="K21" s="2">
+        <v>18000</v>
+      </c>
+      <c r="L21" s="2">
+        <v>18000</v>
+      </c>
+      <c r="M21" s="2">
+        <v>18000</v>
+      </c>
+      <c r="N21" s="2">
+        <v>18000</v>
+      </c>
+      <c r="O21" s="2">
+        <v>18000</v>
+      </c>
+      <c r="P21" s="2">
+        <v>18000</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <f>C20*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22" si="3">D20*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f>0.5*(E21*E20)</f>
+        <v>286.44299999999998</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22:Q22" si="4">0.5*(F21*F20)</f>
+        <v>295.03629000000001</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>303.88737870000006</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="4"/>
+        <v>313.00400006100006</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>322.3941200628301</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>332.06594366471495</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>342.02792197465646</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>352.28875963389612</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="4"/>
+        <v>362.85742242291303</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="4"/>
+        <v>373.74314509560043</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="4"/>
+        <v>384.9554394484685</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="4"/>
+        <v>396.50410263192259</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="4"/>
+        <v>408.39922571088022</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="2">
+        <f>NPV(C23,C22:XFD22)</f>
+        <v>2259.43802874522</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="21">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{75E199C5-085C-4591-9985-1C0285F2B044}"/>
+    <hyperlink ref="B29" r:id="rId1" xr:uid="{09B8561B-1081-4C66-A0B0-65FBE17FC8BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA79540E-F705-4B35-B65E-10041AF49ADA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ATYR.xlsx
+++ b/ATYR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81881F62-51AA-4DC4-89B3-13FBF76EF50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552E629F-3317-4015-A062-E08D614D391A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="735" windowWidth="23385" windowHeight="13140" xr2:uid="{1B6FF029-A03D-4586-8AFE-F39852695A08}"/>
+    <workbookView xWindow="1455" yWindow="435" windowWidth="22200" windowHeight="14685" activeTab="2" xr2:uid="{1B6FF029-A03D-4586-8AFE-F39852695A08}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
   <si>
     <t>Price</t>
   </si>
@@ -249,12 +249,21 @@
   </si>
   <si>
     <t>Results in Q325 for Efzofitimod</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Implied Success</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -428,7 +437,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -821,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79437250-B15D-47C9-85AE-E4EC02F4F4B5}">
   <dimension ref="B2:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -959,6 +968,11 @@
         <v>0.84269662921348309</v>
       </c>
       <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="M10" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="O11" t="s">
@@ -2197,10 +2211,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72EB33E-E1FF-4ECC-8F74-DECD74E92A04}">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2272,7 +2286,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" s="23" t="s">
+      <c r="C12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2356,63 +2370,63 @@
       <c r="B19" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="23">
         <f>150000/1000000</f>
         <v>0.15</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="23">
         <f>C19*1.03</f>
         <v>0.1545</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="23">
         <f t="shared" ref="E19:Q19" si="1">D19*1.03</f>
         <v>0.159135</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="23">
         <f t="shared" si="1"/>
         <v>0.16390905</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="23">
         <f t="shared" si="1"/>
         <v>0.16882632150000002</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="23">
         <f t="shared" si="1"/>
         <v>0.17389111114500003</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="23">
         <f t="shared" si="1"/>
         <v>0.17910784447935002</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="23">
         <f t="shared" si="1"/>
         <v>0.18448107981373052</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="23">
         <f t="shared" si="1"/>
         <v>0.19001551220814245</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="23">
         <f t="shared" si="1"/>
         <v>0.19571597757438672</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="23">
         <f t="shared" si="1"/>
         <v>0.20158745690161833</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="23">
         <f t="shared" si="1"/>
         <v>0.20763508060866689</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="23">
         <f t="shared" si="1"/>
         <v>0.21386413302692692</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="23">
         <f t="shared" si="1"/>
         <v>0.22028005701773473</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="23">
         <f t="shared" si="1"/>
         <v>0.22688845872826677</v>
       </c>
@@ -2421,55 +2435,57 @@
       <c r="B20" t="s">
         <v>53</v>
       </c>
-      <c r="E20">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1">
         <f>E19*0.2</f>
         <v>3.1827000000000001E-2</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <f t="shared" ref="F20:Q20" si="2">F19*0.2</f>
         <v>3.2781810000000002E-2</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <f t="shared" si="2"/>
         <v>3.3765264300000007E-2</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <f t="shared" si="2"/>
         <v>3.4778222229000004E-2</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <f t="shared" si="2"/>
         <v>3.5821568895870008E-2</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="1">
         <f t="shared" si="2"/>
         <v>3.6896215962746108E-2</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="1">
         <f t="shared" si="2"/>
         <v>3.8003102441628495E-2</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="1">
         <f t="shared" si="2"/>
         <v>3.9143195514877348E-2</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="1">
         <f t="shared" si="2"/>
         <v>4.0317491380323672E-2</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="1">
         <f t="shared" si="2"/>
         <v>4.152701612173338E-2</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="1">
         <f t="shared" si="2"/>
         <v>4.2772826605385388E-2</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="1">
         <f t="shared" si="2"/>
         <v>4.4056011403546952E-2</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="1">
         <f t="shared" si="2"/>
         <v>4.5377691745653356E-2</v>
       </c>
@@ -2478,6 +2494,8 @@
       <c r="B21" t="s">
         <v>0</v>
       </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="2">
         <v>18000</v>
       </c>
@@ -2522,63 +2540,63 @@
       <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <f>C20*0.5</f>
         <v>0</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <f t="shared" ref="D22" si="3">D20*0.5</f>
         <v>0</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <f>0.5*(E21*E20)</f>
         <v>286.44299999999998</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <f t="shared" ref="F22:Q22" si="4">0.5*(F21*F20)</f>
         <v>295.03629000000001</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <f t="shared" si="4"/>
         <v>303.88737870000006</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="2">
         <f t="shared" si="4"/>
         <v>313.00400006100006</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="2">
         <f t="shared" si="4"/>
         <v>322.3941200628301</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="2">
         <f t="shared" si="4"/>
         <v>332.06594366471495</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="2">
         <f t="shared" si="4"/>
         <v>342.02792197465646</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="2">
         <f t="shared" si="4"/>
         <v>352.28875963389612</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="2">
         <f t="shared" si="4"/>
         <v>362.85742242291303</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="2">
         <f t="shared" si="4"/>
         <v>373.74314509560043</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="2">
         <f t="shared" si="4"/>
         <v>384.9554394484685</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="2">
         <f t="shared" si="4"/>
         <v>396.50410263192259</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="2">
         <f t="shared" si="4"/>
         <v>408.39922571088022</v>
       </c>
@@ -2603,15 +2621,17 @@
         <v>2259.43802874522</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C25" s="2"/>
-    </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>54</v>
       </c>
       <c r="C26" s="1">
-        <v>25</v>
+        <f>(C24+Main!P5-Main!P6)/Main!P3</f>
+        <v>26.113460997137306</v>
+      </c>
+      <c r="D26" s="17">
+        <f>C26/Main!$P$2-1</f>
+        <v>3.9270681126674161</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
@@ -2619,23 +2639,41 @@
         <v>55</v>
       </c>
       <c r="C27" s="21">
-        <v>0.84</v>
+        <f>(Main!P5-Main!P6)/Main!P3</f>
+        <v>0.72651685393258425</v>
+      </c>
+      <c r="D27" s="17">
+        <f>C27/Main!$P$2-1</f>
+        <v>-0.86292134831460676</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="17">
+        <f>Main!P7/Efzofitimod!C24</f>
+        <v>0.18015099100817111</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="21"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{75E199C5-085C-4591-9985-1C0285F2B044}"/>
-    <hyperlink ref="B29" r:id="rId1" xr:uid="{09B8561B-1081-4C66-A0B0-65FBE17FC8BE}"/>
+    <hyperlink ref="B31" r:id="rId1" xr:uid="{09B8561B-1081-4C66-A0B0-65FBE17FC8BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2645,9 +2683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA79540E-F705-4B35-B65E-10041AF49ADA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/ATYR.xlsx
+++ b/ATYR.xlsx
@@ -5,18 +5,21 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552E629F-3317-4015-A062-E08D614D391A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9B3245-7FB3-4165-8C32-ADCC2065DBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="435" windowWidth="22200" windowHeight="14685" activeTab="2" xr2:uid="{1B6FF029-A03D-4586-8AFE-F39852695A08}"/>
+    <workbookView xWindow="1350" yWindow="1215" windowWidth="22200" windowHeight="14205" activeTab="3" xr2:uid="{1B6FF029-A03D-4586-8AFE-F39852695A08}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
     <sheet name="Model" sheetId="1" r:id="rId2"/>
-    <sheet name="Efzofitimod" sheetId="3" r:id="rId3"/>
-    <sheet name="NRP2" sheetId="4" r:id="rId4"/>
+    <sheet name="IP" sheetId="5" r:id="rId3"/>
+    <sheet name="Literature" sheetId="6" r:id="rId4"/>
+    <sheet name="Sarcoidosis" sheetId="7" r:id="rId5"/>
+    <sheet name="NRP2" sheetId="4" r:id="rId6"/>
+    <sheet name="Efzofitimod" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="270">
   <si>
     <t>Price</t>
   </si>
@@ -167,9 +170,6 @@
     <t>Efzofitimod</t>
   </si>
   <si>
-    <t>ATYR1923</t>
-  </si>
-  <si>
     <t>Q125</t>
   </si>
   <si>
@@ -255,6 +255,603 @@
   </si>
   <si>
     <t>Implied Success</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Relevance</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>ATYR1923, KRP-R120</t>
+  </si>
+  <si>
+    <t>Kyorin</t>
+  </si>
+  <si>
+    <t>Physiochemistry</t>
+  </si>
+  <si>
+    <t>search terms="Efzofitimod"</t>
+  </si>
+  <si>
+    <t>search terms="ATYR1923"</t>
+  </si>
+  <si>
+    <t>2: Konigsberg IR, Maier LA, Yang IV. Epigenetics and sarcoidosis. Eur Respir Rev. 2021 Jun 23;30(160):210076. doi: 10.1183/16000617.0076-2021. PMID: 34168064; PMCID: PMC9488730.</t>
+  </si>
+  <si>
+    <t>4: Liao SY, Atif SM, Mould K, Konigsberg IR, Fu R, Davidson E, Li L, Fontenot AP, Maier LA, Yang IV. Single-cell RNA sequencing identifies macrophage transcriptional heterogeneities in granulomatous diseases. Eur Respir J. 2021 Jun 17;57(6):2003794. doi: 10.1183/13993003.03794-2020. PMID: 33602861; PMCID: PMC8247459.</t>
+  </si>
+  <si>
+    <t>6: Cherabuddi MR, Goodman B, Ayyad A, Almajali DA, Nadeem O, Bradley P, Russell C, Ouellette D. Association of Area Deprivation Index with Adherence to Proposed Regimen in Patients with Sarcoidosis in Detroit, Michigan. Sarcoidosis Vasc Diffuse Lung Dis. 2024 Jun 28;41(2):e2024031. doi: 10.36141/svdld.v41i2.15587. PMID: 38940707; PMCID: PMC11275538.</t>
+  </si>
+  <si>
+    <t>5: Vukmirovic M, Yan X, Gibson KF, Gulati M, Schupp JC, DeIuliis G, Adams TS, Hu B, Mihaljinec A, Woolard TN, Lynn H, Emeagwali N, Herzog EL, Chen ES, Morris A, Leader JK, Zhang Y, Garcia JGN, Maier LA, Collman RG, Drake WP, Becich MJ, Hochheiser H, Wisniewski SR, Benos PV, Moller DR, Prasse A, Koth LL, Kaminski N; GRADS Investigators. Transcriptomics of bronchoalveolar lavage cells identifies GRADS Investigators. Transcriptomics of bronchoalveolar lavage cells identifies new molecular endotypes of sarcoidosis. Eur Respir J. 2021 Dec 2;58(6):2002950. new molecular endotypes of sarcoidosis. Eur Respir J. 2021 Dec 2;58(6):2002950.</t>
+  </si>
+  <si>
+    <t>12: Li L, Vestal B, Mroz MM, Liu S, MacPhail K, Griffin TJ, Yang IV, Maier LA, Bhargava M. Compartment-specific protein interactions in beryllium lung disease. ERJ Open Res. 2023 Nov 13;9(6):00138-2023. doi: 10.1183/23120541.00138-2023. PMID: 37965231; PMCID: PMC10641575.</t>
+  </si>
+  <si>
+    <t>11: Förster S, Chong YE, Siefker D, Becker Y, Bao R, Escobedo E, Qing Y, Rauch K, Burman L, Burkart C, Kainz P, Cubitt A, Muders M, Nangle LA. Development and Characterization of a Novel Neuropilin-2 Antibody for Immunohistochemical Staining of Cancer and Sarcoidosis Tissue Samples. Monoclon Antib Immunodiagn Immunother. 2023 Oct;42(5):157-165. doi: 10.1089/mab.2023.0007. PMID: 37902990.</t>
+  </si>
+  <si>
+    <t>10: Obi ON. Anti-inflammatory Therapy for Sarcoidosis. Clin Chest Med. 2024 Mar;45(1):131-157. doi: 10.1016/j.ccm.2023.08.010. Epub 2023 Sep 9. PMID: 38245362</t>
+  </si>
+  <si>
+    <t>9: Obi ON, Saketkoo LA, Maier LA, Baughman RP. Developmental drugs for sarcoidosis. J Autoimmun. 2024 Dec;149:103179. doi: 10.1016/j.jaut.2024.103179. Epub 2024 Mar 28. PMID: 38548579.</t>
+  </si>
+  <si>
+    <t>8: Bechman K, Biddle K, Miracle A, He K, Gibson M, Russell MD, Walsh S, Brex P, Patel AS, Myall KJ, Norton S, Birring SS, Galloway J. Systematic review and meta-analysis of the efficacy of biologic and targeted synthetic therapies in sarcoidosis. Thorax. 2025 May 19:thorax-2025-223014. doi: 10.1136/thorax-2025-223014. Epub ahead of print. PMID: 40393718.</t>
+  </si>
+  <si>
+    <t>7: Nangle LA, Xu Z, Siefker D, Burkart C, Chong YE, Zhai L, Geng Y, Polizzi C, Guy L, Eide L, Tong Y, Klopp-Savino S, Ferrer M, Rauch K, Wang A, Hamel K, Crampton S, Paz S, Chiang KP, Do MH, Burman L, Lee D, Zhang M, Ogilvie K, King D, Adams RA, Schimmel P. A human histidyl-tRNA synthetase splice variant therapeutic targets NRP2 to resolve lung inflammation and fibrosis. Sci Transl Med. 2025 Mar 12;17(789):eadp4754. doi: 10.1126/scitranslmed.adp4754. Epub 2025 Mar 12. PMID: 40073151.</t>
+  </si>
+  <si>
+    <t>6: Nunes H, Hindré R, Jeny F. New therapeutic options in sarcoidosis. Curr Opin Pulm Med. 2025 Sep 1;31(5):560-570. doi: 10.1097/MCP.0000000000001196. Epub 2025 Jul 7. PMID: 40620171.</t>
+  </si>
+  <si>
+    <t>5: Moodley Y. Contemporary Concise Review 2023: Interstitial lung disease. Respirology. 2024 Dec;29(12):1095-1100. doi: 10.1111/resp.14848. Epub 2024 Oct 22. PMID: 39438044.</t>
+  </si>
+  <si>
+    <t>4: Obi ON, Baughman RP, Crouser ED, Julian MW, Locke LW, Chandrasekaran A, Ramesh P, Kinnersley N, Niranjan V, Culver DA, Sporn PHS. Therapeutic doses of efzofitimod demonstrate efficacy in pulmonary sarcoidosis. ERJ Open Res. 2025 Jan 13;11(1):00536-2024. doi: 10.1183/23120541.00536-2024. PMID: 39811550; PMCID: PMC11726701.</t>
+  </si>
+  <si>
+    <t>3: Walker G, Adams R, Guy L, Chandrasekaran A, Kinnersley N, Ramesh P, Zhang L, Brown F, Niranjan V. Exposure-response analyses of efzofitimod in patients with pulmonary sarcoidosis. Front Pharmacol. 2023 Oct 3;14:1258236. doi: 10.3389/fphar.2023.1258236. PMID: 37854715; PMCID: PMC10580085.</t>
+  </si>
+  <si>
+    <t>2: Baughman RP, Niranjan V, Walker G, Burkart C, Paz S, Chong Y, Siefker D, Sun E, Nangle L, Forster S, Muders M, Farver C, Lower E, Shukla S, Culver DA. Efzofitimod: a novel anti-inflammatory agent for sarcoidosis. Sarcoidosis Vasc Diffuse Lung Dis. 2023 Mar 28;40(1):e2023011. doi: 10.36141/svdld.v40i1.14396. PMID: 36975051; PMCID: PMC10099656.</t>
+  </si>
+  <si>
+    <t>1: Culver DA, Aryal S, Barney J, Hsia CCW, James WE, Maier LA, Marts LT, Obi ON, Sporn PHS, Sweiss NJ, Shukla S, Kinnersley N, Walker G, Baughman R. Efzofitimod for the Treatment of Pulmonary Sarcoidosis. Chest. 2023 Apr;163(4):881-890. doi: 10.1016/j.chest.2022.10.037. Epub 2022 Nov 8. PMID: 36356657; PMCID: PMC10258437.</t>
+  </si>
+  <si>
+    <t>Patent</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Assignee</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>search terms="ATYR" AND "NRP2"</t>
+  </si>
+  <si>
+    <t>US-12065495-B2</t>
+  </si>
+  <si>
+    <t>Compositions and methods comprising anti-NRP2 antibodies</t>
+  </si>
+  <si>
+    <t>Burman; Luke G. et al.</t>
+  </si>
+  <si>
+    <t>US-11807687-B2</t>
+  </si>
+  <si>
+    <t>Therapeutic compositions comprising anti-NRP2 antibodies</t>
+  </si>
+  <si>
+    <t>Burman; Luke et al.</t>
+  </si>
+  <si>
+    <t>US-11505610-B2</t>
+  </si>
+  <si>
+    <t>US-10669533-B2</t>
+  </si>
+  <si>
+    <t>Innovative discovery of therapeutic, diagnostic, and antibody compositions related to protein fragments of Histidyl-tRNA synthetases</t>
+  </si>
+  <si>
+    <t>Greene; Leslie Ann et al.</t>
+  </si>
+  <si>
+    <t>US-10563192-B2</t>
+  </si>
+  <si>
+    <t>Innovative discovery of therapeutic, diagnostic, and antibody compositions related to protein fragments of threonyl-tRNA synthetases</t>
+  </si>
+  <si>
+    <t>US-10563191-B2</t>
+  </si>
+  <si>
+    <t>Innovative discovery of therapeutic, diagnostic, and antibody compositions related protein fragments of tryptophanyl tRNA synthetases</t>
+  </si>
+  <si>
+    <t>US-10220080-B2</t>
+  </si>
+  <si>
+    <t>Innovative discovery of therapeutic, diagnostic, and antibody compositions related to protein fragments of phenylalanyl-beta-tRNA synthetases</t>
+  </si>
+  <si>
+    <t>US-10196629-B2</t>
+  </si>
+  <si>
+    <t>Innovative discovery of therapeutic, diagnostic, and antibody compositions related to protein fragments of glycyl-tRNA synthetases</t>
+  </si>
+  <si>
+    <t>US-10196628-B2</t>
+  </si>
+  <si>
+    <t>Innovative discovery of therapeutic, diagnostic, and antibody compositions related to protein fragments of histidyl-tRNA synthetases</t>
+  </si>
+  <si>
+    <t>US-10189911-B2</t>
+  </si>
+  <si>
+    <t>Innovative discovery of therapeutic, diagnostic, and antibody compositions related to protein fragments of Valyl-tRNA synthetases</t>
+  </si>
+  <si>
+    <t>US-10179906-B2</t>
+  </si>
+  <si>
+    <t>Innovative discovery of therapeutic, diagnostic, and antibody compositions related to protein fragments of phenylalanyl-alpha-tRNA synthetases</t>
+  </si>
+  <si>
+    <t>US-10179908-B2</t>
+  </si>
+  <si>
+    <t>Innovative discovery of therapeutic, diagnostic, and antibody compositions related to protein fragments of leucyl-tRNA synthetases</t>
+  </si>
+  <si>
+    <t>US-10160814-B2</t>
+  </si>
+  <si>
+    <t>Innovative discovery of therapeutic, diagnostic, and antibody compositions related to protein fragments of glutamyl-prolyl-tRNA synthetases</t>
+  </si>
+  <si>
+    <t>US-10150958-B2</t>
+  </si>
+  <si>
+    <t>US-10030077-B2</t>
+  </si>
+  <si>
+    <t>Innovative discovery of therapeutic, diagnostic, and antibody compositions related to protein fragments of cysteinyl-tRNA synthetase</t>
+  </si>
+  <si>
+    <t>US-9896515-B2</t>
+  </si>
+  <si>
+    <t>Innovative discovery of therapeutic, diagnostic, and antibody compositions related to protein fragments of isoleucyl tRNA synthetases</t>
+  </si>
+  <si>
+    <t>US-9796972-B2</t>
+  </si>
+  <si>
+    <t>US-9790482-B2</t>
+  </si>
+  <si>
+    <t>US-9687533-B2</t>
+  </si>
+  <si>
+    <t>US-9637730-B2</t>
+  </si>
+  <si>
+    <t>US-9623093-B2</t>
+  </si>
+  <si>
+    <t>Innovative discovery of therapeutic, diagnostic, and antibody compositions related to protein fragments of asparaginyl tRNA synthetases</t>
+  </si>
+  <si>
+    <t>US-9593322-B2</t>
+  </si>
+  <si>
+    <t>Innovative discovery of therapeutic, diagnostic, and antibody compositions related to protein fragments of arginyl-trna synthetases</t>
+  </si>
+  <si>
+    <t>US-9593323-B2</t>
+  </si>
+  <si>
+    <t>US-9580706-B2</t>
+  </si>
+  <si>
+    <t>US-9574187-B2</t>
+  </si>
+  <si>
+    <t>US-9556425-B2</t>
+  </si>
+  <si>
+    <t>US-9540629-B2</t>
+  </si>
+  <si>
+    <t>Innovative discovery of therapeutic, diagnostic, and antibody compositions related to protein fragments of Cysteinyl-tRNA synthetase</t>
+  </si>
+  <si>
+    <t>US-9528103-B2</t>
+  </si>
+  <si>
+    <t>US-9428743-B2</t>
+  </si>
+  <si>
+    <t>Innovative discovery of therapeutic, diagnostic, and antibody compositions related to protein fragments of tyrosyl-trna synthetases</t>
+  </si>
+  <si>
+    <t>US-9422538-B2</t>
+  </si>
+  <si>
+    <t>Innovative discovery of therapeutic, diagnostic, and antibody compositions related to protein fragments of methionyl-tRNA synthetasis</t>
+  </si>
+  <si>
+    <t>US-9422539-B2</t>
+  </si>
+  <si>
+    <t>US-9404104-B2</t>
+  </si>
+  <si>
+    <t>Innovative discovery of therapeutic, diagnostic, and antibody compositions related to protein fragments of P38 multi-tRNA synthetase complex</t>
+  </si>
+  <si>
+    <t>US-9399770-B2</t>
+  </si>
+  <si>
+    <t>Innovative discovery of therapeutic, diagnostic, and antibody compositions related to protein fragments of tryptophanyl-tRNA synthetases</t>
+  </si>
+  <si>
+    <t>US-9347053-B2</t>
+  </si>
+  <si>
+    <t>Innovative discovery of therapeutic, diagnostic, and antibody compositions related to protein fragments of glutaminyl-tRNA synthetases</t>
+  </si>
+  <si>
+    <t>US-9340780-B2</t>
+  </si>
+  <si>
+    <t>Innovative discovery of therapeutic, diagnostic, and antibody compositions related to protein fragments of seryl-tRNA synthetases</t>
+  </si>
+  <si>
+    <t>US-9320782-B2</t>
+  </si>
+  <si>
+    <t>Innovative discovery of therapeutic, diagnostic, and antibody compositions related to protein fragments of alanyl tRNA synthetases</t>
+  </si>
+  <si>
+    <t>US-9322009-B2</t>
+  </si>
+  <si>
+    <t>Innovative discovery of therapeutic, diagnostic, and antibody compositions related to protein fragments of Lysyl-tRNA synthetases</t>
+  </si>
+  <si>
+    <t>US-9315794-B2</t>
+  </si>
+  <si>
+    <t>Innovative discovery of therapeutic, diagnostic, and antibody compositions related to protein fragments of aspartyl-tRNA synthetases</t>
+  </si>
+  <si>
+    <t>US-9068177-B2</t>
+  </si>
+  <si>
+    <t>US-9062301-B2</t>
+  </si>
+  <si>
+    <t>US-9062302-B2</t>
+  </si>
+  <si>
+    <t>Innovative discovery of therapeutic, diagnostic, and antibody compositions related to protein fragments of p38 multi-tRNA synthetase complex</t>
+  </si>
+  <si>
+    <t>US-9034320-B2</t>
+  </si>
+  <si>
+    <t>US-9034321-B2</t>
+  </si>
+  <si>
+    <t>US-9034598-B2</t>
+  </si>
+  <si>
+    <t>US-9029506-B2</t>
+  </si>
+  <si>
+    <t>Innovative discovery of therapeutic, diagnostic, and antibody compositions related to protein fragments of tyrosyl-tRNA synthetases</t>
+  </si>
+  <si>
+    <t>US-8999321-B2</t>
+  </si>
+  <si>
+    <t>US-8993723-B2</t>
+  </si>
+  <si>
+    <t>Innovative discovery of therapeutic, diagnostic, and antibody compositions related to protein fragments of alanyl-tRNA synthetases</t>
+  </si>
+  <si>
+    <t>US-8986681-B2</t>
+  </si>
+  <si>
+    <t>US-8986680-B2</t>
+  </si>
+  <si>
+    <t>Innovative discovery of therapeutic, diagnostic, and antibody compositions related to protein fragments of Asparaginyl tRNA synthetases</t>
+  </si>
+  <si>
+    <t>US-8980253-B2</t>
+  </si>
+  <si>
+    <t>US-8981045-B2</t>
+  </si>
+  <si>
+    <t>Innovative discovery of therapeutic, diagnostic, and antibody compositions related to protein fragments of methionyl-tRNA synthetases</t>
+  </si>
+  <si>
+    <t>US-8969301-B2</t>
+  </si>
+  <si>
+    <t>US-8961960-B2</t>
+  </si>
+  <si>
+    <t>Chiang; Kyle P. et al.</t>
+  </si>
+  <si>
+    <t>US-8962560-B2</t>
+  </si>
+  <si>
+    <t>US-8946157-B2</t>
+  </si>
+  <si>
+    <t>US-8945541-B2</t>
+  </si>
+  <si>
+    <t>US-20130315887-A1</t>
+  </si>
+  <si>
+    <t>INNOVATIVE DISCOVERY OF THERAPEUTIC, DIAGNOSTIC, AND ANTIBODY COMPOSITIONS RELATED TO PROTEIN FRAGMENTS OF SERYL-TRNA SYNTHETASES</t>
+  </si>
+  <si>
+    <t>US-20130287755-A1</t>
+  </si>
+  <si>
+    <t>INNOVATIVE DISCOVERY OF THERAPEUTIC, DIAGNOSTIC, AND ANTIBODY COMPOSITIONS RELATED TO PROTEIN FRAGMENTS OF ALANYL-TRNA SYNTHETASES</t>
+  </si>
+  <si>
+    <t>US-20130243745-A1</t>
+  </si>
+  <si>
+    <t>INNOVATIVE DISCOVERY OF THERAPEUTIC, DIAGNOSTIC, AND ANTIBODY COMPOSITIONS RELATED TO PROTEIN FRAGMENTS OF LYSYL-TRNA SYNTHETASES</t>
+  </si>
+  <si>
+    <t>US-20130236440-A1</t>
+  </si>
+  <si>
+    <t>INNOVATIVE DISCOVERY OF THERAPEUTIC, DIAGNOSTIC, AND ANTIBODY COMPOSITIONS RELATED TO PROTEIN FRAGMENTS OF METHIONYL-TRNA SYNTHETASES</t>
+  </si>
+  <si>
+    <t>US-20130230507-A1</t>
+  </si>
+  <si>
+    <t>INNOVATIVE DISCOVERY OF THERAPEUTIC, DIAGNOSTIC, AND ANTIBODY COMPOSITIONS RELATED TO PROTEIN FRAGMENTS OF P38 MULTI-TRNA SYNTHETASE COMPLEX</t>
+  </si>
+  <si>
+    <t>US-20130230505-A1</t>
+  </si>
+  <si>
+    <t>INNOVATIVE DISCOVERY OF THERAPEUTIC, DIAGNOSTIC, AND ANTIBODY COMPOSITIONS RELATED TO PROTEIN FRAGMENTS OF GLUTAMINYL-TRNA SYNTHETASES</t>
+  </si>
+  <si>
+    <t>US-20130230508-A1</t>
+  </si>
+  <si>
+    <t>INNOVATIVE DISCOVERY OF THERAPEUTIC, DIAGNOSTIC, AND ANTIBODY COMPOSITIONS RELATED TO PROTEIN FRAGMENTS OF TYROSYL-tRNA SYNTHETASES</t>
+  </si>
+  <si>
+    <t>US-20130224173-A1</t>
+  </si>
+  <si>
+    <t>INNOVATIVE DISCOVERY OF THERAPEUTIC, DIAGNOSTIC, AND ANTIBODY COMPOSITIONS RELATED TO PROTEIN FRAGMENTS OF GLUTAMYL-PROLYL-TRNA SYNTHETASES</t>
+  </si>
+  <si>
+    <t>US-20130224174-A1</t>
+  </si>
+  <si>
+    <t>INNOVATIVE DISCOVERY OF THERAPEUTIC, DIAGNOSTIC, AND ANTIBODY COMPOSITIONS RELATED TO PROTEIN FRAGMENTS OF GLYCYL-TRNA SYNTHETASES</t>
+  </si>
+  <si>
+    <t>US-20130209472-A1</t>
+  </si>
+  <si>
+    <t>INNOVATIVE DISCOVERY OF THERAPEUTIC, DIAGNOSTIC, AND ANTIBODY COMPOSITIONS RELATED TO PROTEIN FRAGMENTS OF ASPARAGINYL TRNA SYNTHETASES</t>
+  </si>
+  <si>
+    <t>US-20130209434-A1</t>
+  </si>
+  <si>
+    <t>INNOVATIVE DISCOVERY OF THERAPEUTIC, DIAGNOSTIC, AND ANTIBODY COMPOSITIONS RELATED TO PROTEIN FRAGMENTS OF LEUCYL-TRNA SYNTHETASES</t>
+  </si>
+  <si>
+    <t>US-20130202574-A1</t>
+  </si>
+  <si>
+    <t>INNOVATIVE DISCOVERY OF THERAPEUTIC, DIAGNOSTIC, AND ANTIBODY COMPOSITIONS RELATED TO PROTEIN FRAGMENTS OF VALYL-TRNA SYNTHETASES</t>
+  </si>
+  <si>
+    <t>US-20130202575-A1</t>
+  </si>
+  <si>
+    <t>INNOVATIVE DISCOVERY OF THERAPEUTIC, DIAGNOSTIC, AND ANTIBODY COMPOSITIONS RELATED TO PROTEIN FRAGMENTS OF PHENYLALANYL-BETA-TRNA SYNTHETASES</t>
+  </si>
+  <si>
+    <t>US-20130202576-A1</t>
+  </si>
+  <si>
+    <t>INNOVATIVE DISCOVERY OF THERAPEUTIC, DIAGNOSTIC, AND ANTIBODY COMPOSITIONS RELATED TO PROTEIN FRAGMENTS OF HISTIDYL-TRNA SYNTHETASES</t>
+  </si>
+  <si>
+    <t>US-20130142774-A1</t>
+  </si>
+  <si>
+    <t>INNOVATIVE DISCOVERY OF THERAPEUTIC, DIAGNOSTIC, AND ANTIBODY COMPOSITIONS RELATED PROTEIN FRAGMENTS OF ARGINYL-TRNA SYNTHETASES</t>
+  </si>
+  <si>
+    <t>US-20130129705-A1</t>
+  </si>
+  <si>
+    <t>INNOVATIVE DISCOVERY OF THERAPEUTIC, DIAGNOSTIC, AND ANTIBODY COMPOSITIONS RELATED TO PROTEIN FRAGMENTS OF CYSTEINYL-tRNA SYNTHETASE</t>
+  </si>
+  <si>
+    <t>US-20130129703-A1</t>
+  </si>
+  <si>
+    <t>INNOVATIVE DISCOVERY OF THERAPEUTIC, DIAGNOSTIC, AND ANTIBODY COMPOSITIONS RELATED TO PROTEIN FRAGMENTS OF ISOLEUCYL TRNA SYNTHETASES</t>
+  </si>
+  <si>
+    <t>US-20130129704-A1</t>
+  </si>
+  <si>
+    <t>INNOVATIVE DISCOVERY OF THERAPEUTIC, DIAGNOSTIC, AND ANTIBODY COMPOSITIONS RELATED TO PROTEIN FRAGMENTS OF THREONYL-TRNA SYNTHETASES</t>
+  </si>
+  <si>
+    <t>US-20100172921-A1</t>
+  </si>
+  <si>
+    <t>INHIBITION OF TUMOR METASTASIS BY ANTI NEUROPILIN 2 ANTIBODIES</t>
+  </si>
+  <si>
+    <t>Wu; Yan et al.</t>
+  </si>
+  <si>
+    <t>search terms="anti-NRP2"</t>
+  </si>
+  <si>
+    <t>US-20100150919-A1</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURES OF NEUROPILIN FRAGMENTS AND NEUROPILIN-ANTIBODY COMPLEXES</t>
+  </si>
+  <si>
+    <t>Appleton; Brent A. et al.</t>
+  </si>
+  <si>
+    <t>US-20120322989-A1</t>
+  </si>
+  <si>
+    <t>APPLETON; Brent A. et al.</t>
+  </si>
+  <si>
+    <t>US-8318163-B2</t>
+  </si>
+  <si>
+    <t>Anti-pan neuropilin antibody and binding fragments thereof</t>
+  </si>
+  <si>
+    <t>US-8466264-B2</t>
+  </si>
+  <si>
+    <t>Crystal structures of neuropilin fragments and neuropilin-antibody complexes</t>
+  </si>
+  <si>
+    <t>US-8648173-B2</t>
+  </si>
+  <si>
+    <t>Inhibition of tumor metastasis by anti neuropilin 2 antibodies</t>
+  </si>
+  <si>
+    <t>US-8920805-B2</t>
+  </si>
+  <si>
+    <t>Inhibition of tumor metastasis by anti-neuropilin 2 antibodies</t>
+  </si>
+  <si>
+    <t>US-20250179502-A1</t>
+  </si>
+  <si>
+    <t>TARGETING NEUROPILIN 2 (NRP2) IN LETHAL PROSTATE CANCER</t>
+  </si>
+  <si>
+    <t>MERCURIO; Arthur M. et al.</t>
+  </si>
+  <si>
+    <t>Sarcoidosis</t>
+  </si>
+  <si>
+    <t>Broader</t>
+  </si>
+  <si>
+    <t>ILD</t>
+  </si>
+  <si>
+    <t>Treatments</t>
+  </si>
+  <si>
+    <t>Dhooria S, Sehgal IS, Agarwal R, Muthu V, Prasad KT, Dogra P, Debi U, Garg M, Bal A, Gupta N, Aggarwal AN. High-dose (40 mg) versus low-dose (20 mg) prednisolone for treating sarcoidosis: a randomised trial (SARCORT trial). Eur Respir J. 2023 Sep 9;62(3):2300198. doi: 10.1183/13993003.00198-2023. PMID: 37690784.</t>
+  </si>
+  <si>
+    <t>search terms="sarcoidosis" AND Article Type="Clinical Trial"</t>
+  </si>
+  <si>
+    <t>Phase 4</t>
+  </si>
+  <si>
+    <t>Sakkat A, Cox G, Khalidi N, Larche M, Beattie K, Renzoni EA, Morar N, Kouranos V, Kolb M, Hambly N. Infliximab therapy in refractory sarcoidosis: a multicenter real-world analysis. Respir Res. 2022 Mar 9;23(1):54. doi: 10.1186/s12931-022-01971-5. PMID: 35264154; PMCID: PMC8905837.</t>
+  </si>
+  <si>
+    <t>Kahlmann V, Janssen Bonás M, Moor CC, Grutters JC, Mostard RLM, van Rijswijk HNAJ, van der Maten J, Marges ER, Moonen LAA, Overbeek MJ, Koopman B, Loth DW, Nossent EJ, Wagenaar M, Kramer H, Wielders PLML, Bonta PI, Walen S, Bogaarts BAHA, Kerstens R, Overgaauw M, Veltkamp M, Wijsenbeek MS; PREDMETH Collaborators. First-Line Treatment of Pulmonary Sarcoidosis with Prednisone or Methotrexate. N Engl J Med. 2025 Jul 17;393(3):231-242. doi: 10.1056/NEJMoa2501443. Epub 2025 May 18. PMID: 40387020.</t>
+  </si>
+  <si>
+    <t>Damsky W, Wang A, Kim DJ, Young BD, Singh K, Murphy MJ, Daccache J, Clark A, Ayasun R, Ryu C, McGeary MK, Odell ID, Fazzone-Chettiar R, Pucar D, Homer R, Gulati M, Miller EJ, Bosenberg M, Flavell RA, King B. Inhibition of type 1 immunity with tofacitinib is associated with marked improvement in longstanding sarcoidosis. Nat Commun. 2022 Jun 6;13(1):3140. doi: 10.1038/s41467-022-30615-x. PMID: 35668129; PMCID: PMC9170782.</t>
+  </si>
+  <si>
+    <t>Redl A, Doberer K, Unterluggauer L, Kleissl L, Krall C, Mayerhofer C, Reininger B, Stary V, Zila N, Weninger W, Weichhart T, Bock C, Krausgruber T, Stary G. Efficacy and safety of mTOR inhibition in cutaneous sarcoidosis: a single-centre trial. Lancet Rheumatol. 2024 Feb;6(2):e81-e91. doi: 10.1016/S2665-9913(23)00302-8. PMID: 38267106.</t>
+  </si>
+  <si>
+    <t>Baker MC, Horomanski A, Wang Y, Liu Y, Parsafar S, Fairchild R, Mooney JJ, Raj R, Witteles R, Genovese MC. A double-blind, placebo-controlled, randomized withdrawal trial of sarilumab for the treatment of glucocorticoid-dependent sarcoidosis. Rheumatology (Oxford). 2024 May 2;63(5):1297-1304. doi: 10.1093/rheumatology/kead373. PMID: 37471590.</t>
+  </si>
+  <si>
+    <t>search terms="NRP2" AND Article Type="Clinical Trial"</t>
+  </si>
+  <si>
+    <t>search terms="Neuropilin-2" AND Article Type="Clinical Trial"</t>
+  </si>
+  <si>
+    <t>1: Ong HS, Gokavarapu S, Xu Q, Tian Z, Li J, Ji T, Zhang CP. Cytoplasmic neuropilin 2 is associated with metastasis and a poor prognosis in early tongue cancer patients. Int J Oral Maxillofac Surg. 2017 Oct;46(10):1205-1219. doi: 10.1016/j.ijom.2017.03.035. Epub 2017 Jun 9. PMID: 28602571.</t>
+  </si>
+  <si>
+    <t>2: Rangwala F, Bendell JC, Kozloff MF, Arrowood CC, Dellinger A, Meadows J, Tourt-Uhlig S, Murphy J, Meadows KL, Starr A, Broderick S, Brady JC, Cushman SM, Morse MA, Uronis HE, Hsu SD, Zafar SY, Wallace J, Starodub AN, Strickler JH, Pang H, Nixon AB, Hurwitz HI. Phase I study of capecitabine, oxaliplatin, bevacizumab, and everolimus in advanced solid tumors. Invest New Drugs. 2014 Aug;32(4):700-9. doi: 10.1007/s10637-014-0089-2. Epub 2014 Apr 9. PMID: 24711126; PMCID: PMC4103954.</t>
+  </si>
+  <si>
+    <t>3: Uronis HE, Bendell JC, Altomare I, Blobe GC, Hsu SD, Morse MA, Pang H, Zafar SY, Conkling P, Favaro J, Arrowood CC, Cushman SM, Meadows KL, Brady JC, Nixon AB, Hurwitz HI. A phase II study of capecitabine, oxaliplatin, and bevacizumab in the treatment of metastatic esophagogastric adenocarcinomas. Oncologist. 2013;18(3):271-2. doi: 10.1634/theoncologist.2012-0404. Epub 2013 Mar 13. PMID: 23485624; PMCID: PMC3607522.</t>
+  </si>
+  <si>
+    <t>3: Grossmann M, Fui MNT, Nie T, Hoermann R, Clarke MV, Cheung AS, Zajac JD, Davey RA. Changes in white adipose tissue gene expression in a randomized control trial of dieting obese men with lowered serum testosterone alone or in combination with testosterone treatment. Endocrine. 2021 Aug;73(2):463-471. doi: 10.1007/s12020-021-02722-0. Epub 2021 Apr 17. PMID: 33864607.</t>
+  </si>
+  <si>
+    <t>Prednisone, corticosteroids</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Autoimmune/Inflammatory</t>
+  </si>
+  <si>
+    <t>Pathology</t>
   </si>
 </sst>
 </file>
@@ -262,7 +859,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -401,7 +998,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -428,16 +1025,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -831,7 +1429,7 @@
   <dimension ref="B2:Q13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -875,7 +1473,7 @@
       <c r="B3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="13" t="s">
@@ -896,7 +1494,7 @@
         <v>89</v>
       </c>
       <c r="Q3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.2">
@@ -927,7 +1525,7 @@
         <v>76.36</v>
       </c>
       <c r="Q5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
@@ -947,7 +1545,7 @@
         <v>11.7</v>
       </c>
       <c r="Q6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.2">
@@ -961,7 +1559,7 @@
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="O9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P9" s="1">
         <f>75/P3</f>
@@ -971,26 +1569,27 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="M10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="O11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="O13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" location="Efzofitimod!A1" display="Efzofitimod" xr:uid="{254933A8-C39D-484F-AB25-131061FFD12B}"/>
     <hyperlink ref="E3" location="'NRP2'!A1" display="NRP2" xr:uid="{6CFE78E3-7D71-4F66-9270-C7F729AABABA}"/>
+    <hyperlink ref="C3" location="Sarcoidosis!A1" display="ILD (sarcoidosis)" xr:uid="{AE29D8FB-C27C-468E-9B74-B0530AE407AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1015,110 +1614,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:114" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="20">
+        <v>42</v>
+      </c>
+      <c r="E2" s="19">
         <v>2022</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="19">
         <v>2023</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="19">
         <f>F2+1</f>
         <v>2024</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="19">
         <f>G2+1</f>
         <v>2025</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="19">
         <f t="shared" ref="I2:Q2" si="0">H2+1</f>
         <v>2026</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="19">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="19">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="19">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2" s="19">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2" s="19">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="O2" s="20">
+      <c r="O2" s="19">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="P2" s="20">
+      <c r="P2" s="19">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="Q2" s="20">
+      <c r="Q2" s="19">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
     </row>
-    <row r="3" spans="1:114" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:114" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="18">
         <v>0</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>10.39</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="18">
         <v>0.35299999999999998</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="18">
         <v>0.23499999999999999</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="18">
         <v>0</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="18">
         <v>0</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="18">
         <v>0</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="18">
         <v>0</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="18">
         <v>0</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="18">
         <v>0</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="18">
         <v>0</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="18">
         <v>0</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="18">
         <v>0</v>
       </c>
-      <c r="Q3" s="19">
+      <c r="Q3" s="18">
         <v>0</v>
       </c>
     </row>
@@ -2056,9 +2655,9 @@
         <v>19</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T17" s="17">
+        <v>43</v>
+      </c>
+      <c r="T17" s="16">
         <v>0.02</v>
       </c>
     </row>
@@ -2067,9 +2666,9 @@
         <v>21</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T18" s="17">
+        <v>44</v>
+      </c>
+      <c r="T18" s="16">
         <v>-0.01</v>
       </c>
     </row>
@@ -2077,24 +2676,24 @@
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="16">
         <f>F7/E7-1</f>
         <v>-6.5467625899280568E-2</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="16">
         <f>G7/F7-1</f>
         <v>6.2355658198614439E-2</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="T19" s="17">
+        <v>45</v>
+      </c>
+      <c r="T19" s="16">
         <v>0.09</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="S20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T20" s="2">
         <f>NPV(T19,H13:XFD13)+Main!P5-Main!P6</f>
@@ -2153,7 +2752,7 @@
         <v>-59.629094098866254</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T21" s="1">
         <f>T20/Main!P3</f>
@@ -2164,7 +2763,7 @@
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T22" s="17">
+      <c r="T22" s="16">
         <f>T21/Main!P2-1</f>
         <v>-1.1321223033071919</v>
       </c>
@@ -2176,7 +2775,7 @@
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2">
         <v>4.6829999999999998</v>
@@ -2194,7 +2793,7 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="2">
         <v>75</v>
@@ -2210,11 +2809,1522 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EE8F51-8600-4D3E-A4DB-1E3A50993309}">
+  <dimension ref="A1:F87"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C90" sqref="C90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="23">
+        <v>45524</v>
+      </c>
+      <c r="F4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="23">
+        <v>45237</v>
+      </c>
+      <c r="F5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="23">
+        <v>44887</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="23">
+        <v>43984</v>
+      </c>
+      <c r="F7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="23">
+        <v>43879</v>
+      </c>
+      <c r="F8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="23">
+        <v>43879</v>
+      </c>
+      <c r="F9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="23">
+        <v>43529</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="23">
+        <v>43501</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="23">
+        <v>43501</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="23">
+        <v>43494</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="23">
+        <v>43480</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="23">
+        <v>43480</v>
+      </c>
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="23">
+        <v>43459</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="23">
+        <v>43445</v>
+      </c>
+      <c r="F17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="23">
+        <v>43305</v>
+      </c>
+      <c r="F18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="23">
+        <v>43151</v>
+      </c>
+      <c r="F19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="23">
+        <v>43032</v>
+      </c>
+      <c r="F20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="23">
+        <v>43025</v>
+      </c>
+      <c r="F21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="23">
+        <v>42913</v>
+      </c>
+      <c r="F22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="23">
+        <v>42857</v>
+      </c>
+      <c r="F23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="23">
+        <v>42843</v>
+      </c>
+      <c r="F24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="23">
+        <v>42808</v>
+      </c>
+      <c r="F25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="23">
+        <v>42808</v>
+      </c>
+      <c r="F26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="23">
+        <v>42794</v>
+      </c>
+      <c r="F27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="23">
+        <v>42787</v>
+      </c>
+      <c r="F28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="23">
+        <v>42766</v>
+      </c>
+      <c r="F29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="23">
+        <v>42745</v>
+      </c>
+      <c r="F30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="23">
+        <v>42731</v>
+      </c>
+      <c r="F31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" s="23">
+        <v>42612</v>
+      </c>
+      <c r="F32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="23">
+        <v>42605</v>
+      </c>
+      <c r="F33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="23">
+        <v>42605</v>
+      </c>
+      <c r="F34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="23">
+        <v>42584</v>
+      </c>
+      <c r="F35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="23">
+        <v>42577</v>
+      </c>
+      <c r="F36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="23">
+        <v>42514</v>
+      </c>
+      <c r="F37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="23">
+        <v>42507</v>
+      </c>
+      <c r="F38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="23">
+        <v>42486</v>
+      </c>
+      <c r="F39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="23">
+        <v>42486</v>
+      </c>
+      <c r="F40" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="23">
+        <v>42479</v>
+      </c>
+      <c r="F41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" s="23">
+        <v>42185</v>
+      </c>
+      <c r="F42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" s="23">
+        <v>42178</v>
+      </c>
+      <c r="F43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" s="23">
+        <v>42178</v>
+      </c>
+      <c r="F44" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" s="23">
+        <v>42143</v>
+      </c>
+      <c r="F45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" s="23">
+        <v>42143</v>
+      </c>
+      <c r="F46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" s="23">
+        <v>42143</v>
+      </c>
+      <c r="F47" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" s="23">
+        <v>42136</v>
+      </c>
+      <c r="F48" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" s="23">
+        <v>42101</v>
+      </c>
+      <c r="F49" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>178</v>
+      </c>
+      <c r="C50" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" s="23">
+        <v>42094</v>
+      </c>
+      <c r="F50" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="23">
+        <v>42087</v>
+      </c>
+      <c r="F51" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" t="s">
+        <v>110</v>
+      </c>
+      <c r="E52" s="23">
+        <v>42087</v>
+      </c>
+      <c r="F52" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" t="s">
+        <v>110</v>
+      </c>
+      <c r="E53" s="23">
+        <v>42080</v>
+      </c>
+      <c r="F53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" t="s">
+        <v>110</v>
+      </c>
+      <c r="E54" s="23">
+        <v>42080</v>
+      </c>
+      <c r="F54" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55" s="23">
+        <v>42066</v>
+      </c>
+      <c r="F55" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" t="s">
+        <v>188</v>
+      </c>
+      <c r="E56" s="23">
+        <v>42059</v>
+      </c>
+      <c r="F56" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>189</v>
+      </c>
+      <c r="C57" t="s">
+        <v>110</v>
+      </c>
+      <c r="E57" s="23">
+        <v>42059</v>
+      </c>
+      <c r="F57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>190</v>
+      </c>
+      <c r="C58" t="s">
+        <v>110</v>
+      </c>
+      <c r="E58" s="23">
+        <v>42038</v>
+      </c>
+      <c r="F58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>191</v>
+      </c>
+      <c r="C59" t="s">
+        <v>110</v>
+      </c>
+      <c r="E59" s="23">
+        <v>42038</v>
+      </c>
+      <c r="F59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>192</v>
+      </c>
+      <c r="C60" t="s">
+        <v>110</v>
+      </c>
+      <c r="E60" s="23">
+        <v>41606</v>
+      </c>
+      <c r="F60" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>194</v>
+      </c>
+      <c r="C61" t="s">
+        <v>110</v>
+      </c>
+      <c r="E61" s="23">
+        <v>41578</v>
+      </c>
+      <c r="F61" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>196</v>
+      </c>
+      <c r="C62" t="s">
+        <v>110</v>
+      </c>
+      <c r="E62" s="23">
+        <v>41536</v>
+      </c>
+      <c r="F62" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>198</v>
+      </c>
+      <c r="C63" t="s">
+        <v>110</v>
+      </c>
+      <c r="E63" s="23">
+        <v>41529</v>
+      </c>
+      <c r="F63" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" t="s">
+        <v>110</v>
+      </c>
+      <c r="E64" s="23">
+        <v>41522</v>
+      </c>
+      <c r="F64" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>202</v>
+      </c>
+      <c r="C65" t="s">
+        <v>110</v>
+      </c>
+      <c r="E65" s="23">
+        <v>41522</v>
+      </c>
+      <c r="F65" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" t="s">
+        <v>110</v>
+      </c>
+      <c r="E66" s="23">
+        <v>41522</v>
+      </c>
+      <c r="F66" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>206</v>
+      </c>
+      <c r="C67" t="s">
+        <v>110</v>
+      </c>
+      <c r="E67" s="23">
+        <v>41515</v>
+      </c>
+      <c r="F67" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>208</v>
+      </c>
+      <c r="C68" t="s">
+        <v>110</v>
+      </c>
+      <c r="E68" s="23">
+        <v>41515</v>
+      </c>
+      <c r="F68" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>210</v>
+      </c>
+      <c r="C69" t="s">
+        <v>110</v>
+      </c>
+      <c r="E69" s="23">
+        <v>41501</v>
+      </c>
+      <c r="F69" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>212</v>
+      </c>
+      <c r="C70" t="s">
+        <v>110</v>
+      </c>
+      <c r="E70" s="23">
+        <v>41501</v>
+      </c>
+      <c r="F70" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>214</v>
+      </c>
+      <c r="C71" t="s">
+        <v>110</v>
+      </c>
+      <c r="E71" s="23">
+        <v>41494</v>
+      </c>
+      <c r="F71" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>216</v>
+      </c>
+      <c r="C72" t="s">
+        <v>110</v>
+      </c>
+      <c r="E72" s="23">
+        <v>41494</v>
+      </c>
+      <c r="F72" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>218</v>
+      </c>
+      <c r="C73" t="s">
+        <v>110</v>
+      </c>
+      <c r="E73" s="23">
+        <v>41494</v>
+      </c>
+      <c r="F73" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C74" t="s">
+        <v>110</v>
+      </c>
+      <c r="E74" s="23">
+        <v>41431</v>
+      </c>
+      <c r="F74" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>222</v>
+      </c>
+      <c r="C75" t="s">
+        <v>110</v>
+      </c>
+      <c r="E75" s="23">
+        <v>41417</v>
+      </c>
+      <c r="F75" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>224</v>
+      </c>
+      <c r="C76" t="s">
+        <v>188</v>
+      </c>
+      <c r="E76" s="23">
+        <v>41417</v>
+      </c>
+      <c r="F76" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>226</v>
+      </c>
+      <c r="C77" t="s">
+        <v>110</v>
+      </c>
+      <c r="E77" s="23">
+        <v>41417</v>
+      </c>
+      <c r="F77" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>245</v>
+      </c>
+      <c r="C80" t="s">
+        <v>247</v>
+      </c>
+      <c r="E80" s="23">
+        <v>45813</v>
+      </c>
+      <c r="F80" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>243</v>
+      </c>
+      <c r="C81" t="s">
+        <v>230</v>
+      </c>
+      <c r="E81" s="23">
+        <v>42003</v>
+      </c>
+      <c r="F81" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>241</v>
+      </c>
+      <c r="C82" t="s">
+        <v>230</v>
+      </c>
+      <c r="E82" s="23">
+        <v>41681</v>
+      </c>
+      <c r="F82" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>239</v>
+      </c>
+      <c r="C83" t="s">
+        <v>234</v>
+      </c>
+      <c r="E83" s="23">
+        <v>41443</v>
+      </c>
+      <c r="F83" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>235</v>
+      </c>
+      <c r="C84" t="s">
+        <v>236</v>
+      </c>
+      <c r="E84" s="23">
+        <v>41263</v>
+      </c>
+      <c r="F84" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>237</v>
+      </c>
+      <c r="C85" t="s">
+        <v>234</v>
+      </c>
+      <c r="E85" s="23">
+        <v>41240</v>
+      </c>
+      <c r="F85" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>228</v>
+      </c>
+      <c r="C86" t="s">
+        <v>230</v>
+      </c>
+      <c r="E86" s="23">
+        <v>40367</v>
+      </c>
+      <c r="F86" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>232</v>
+      </c>
+      <c r="C87" t="s">
+        <v>234</v>
+      </c>
+      <c r="E87" s="23">
+        <v>40346</v>
+      </c>
+      <c r="F87" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{783591D5-D58A-4921-932E-2AA337E253CF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B361690E-22BA-4E36-BAAB-A3F6AF4B864E}">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>254</v>
+      </c>
+      <c r="E24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{D950B39F-F1A0-4AD6-A698-376DEA6C1D22}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735128DA-F2C3-400D-ADA5-F63C0136BED3}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{EDCAE69C-B5D8-4D58-93D0-66B1911C4463}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA79540E-F705-4B35-B65E-10041AF49ADA}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{BA538601-F044-4F68-A870-040B5CBBF456}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72EB33E-E1FF-4ECC-8F74-DECD74E92A04}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2233,7 +4343,7 @@
         <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2249,7 +4359,7 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2262,431 +4372,432 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>60</v>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="21" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>68</v>
+      <c r="C11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>59</v>
+      <c r="C13" s="21" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C18">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C20">
         <v>2025</v>
       </c>
-      <c r="D18">
-        <f>C18+1</f>
+      <c r="D20">
+        <f>C20+1</f>
         <v>2026</v>
       </c>
-      <c r="E18">
-        <f t="shared" ref="E18:Q18" si="0">D18+1</f>
+      <c r="E20">
+        <f t="shared" ref="E20:Q20" si="0">D20+1</f>
         <v>2027</v>
       </c>
-      <c r="F18">
+      <c r="F20">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="G18">
+      <c r="G20">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="H18">
+      <c r="H20">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="I18">
+      <c r="I20">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="J18">
+      <c r="J20">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="K18">
+      <c r="K20">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="L18">
+      <c r="L20">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="M18">
+      <c r="M20">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="N18">
+      <c r="N20">
         <f t="shared" si="0"/>
         <v>2036</v>
       </c>
-      <c r="O18">
+      <c r="O20">
         <f t="shared" si="0"/>
         <v>2037</v>
       </c>
-      <c r="P18">
+      <c r="P20">
         <f t="shared" si="0"/>
         <v>2038</v>
       </c>
-      <c r="Q18">
+      <c r="Q20">
         <f t="shared" si="0"/>
         <v>2039</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="23">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="22">
         <f>150000/1000000</f>
         <v>0.15</v>
       </c>
-      <c r="D19" s="23">
-        <f>C19*1.03</f>
+      <c r="D21" s="22">
+        <f>C21*1.03</f>
         <v>0.1545</v>
       </c>
-      <c r="E19" s="23">
-        <f t="shared" ref="E19:Q19" si="1">D19*1.03</f>
+      <c r="E21" s="22">
+        <f t="shared" ref="E21:Q21" si="1">D21*1.03</f>
         <v>0.159135</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F21" s="22">
         <f t="shared" si="1"/>
         <v>0.16390905</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G21" s="22">
         <f t="shared" si="1"/>
         <v>0.16882632150000002</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H21" s="22">
         <f t="shared" si="1"/>
         <v>0.17389111114500003</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I21" s="22">
         <f t="shared" si="1"/>
         <v>0.17910784447935002</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J21" s="22">
         <f t="shared" si="1"/>
         <v>0.18448107981373052</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K21" s="22">
         <f t="shared" si="1"/>
         <v>0.19001551220814245</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L21" s="22">
         <f t="shared" si="1"/>
         <v>0.19571597757438672</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M21" s="22">
         <f t="shared" si="1"/>
         <v>0.20158745690161833</v>
       </c>
-      <c r="N19" s="23">
+      <c r="N21" s="22">
         <f t="shared" si="1"/>
         <v>0.20763508060866689</v>
       </c>
-      <c r="O19" s="23">
+      <c r="O21" s="22">
         <f t="shared" si="1"/>
         <v>0.21386413302692692</v>
       </c>
-      <c r="P19" s="23">
+      <c r="P21" s="22">
         <f t="shared" si="1"/>
         <v>0.22028005701773473</v>
       </c>
-      <c r="Q19" s="23">
+      <c r="Q21" s="22">
         <f t="shared" si="1"/>
         <v>0.22688845872826677</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="1">
-        <f>E19*0.2</f>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1">
+        <f>E21*0.2</f>
         <v>3.1827000000000001E-2</v>
       </c>
-      <c r="F20" s="1">
-        <f t="shared" ref="F20:Q20" si="2">F19*0.2</f>
+      <c r="F22" s="1">
+        <f t="shared" ref="F22:Q22" si="2">F21*0.2</f>
         <v>3.2781810000000002E-2</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G22" s="1">
         <f t="shared" si="2"/>
         <v>3.3765264300000007E-2</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H22" s="1">
         <f t="shared" si="2"/>
         <v>3.4778222229000004E-2</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I22" s="1">
         <f t="shared" si="2"/>
         <v>3.5821568895870008E-2</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J22" s="1">
         <f t="shared" si="2"/>
         <v>3.6896215962746108E-2</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K22" s="1">
         <f t="shared" si="2"/>
         <v>3.8003102441628495E-2</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L22" s="1">
         <f t="shared" si="2"/>
         <v>3.9143195514877348E-2</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M22" s="1">
         <f t="shared" si="2"/>
         <v>4.0317491380323672E-2</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N22" s="1">
         <f t="shared" si="2"/>
         <v>4.152701612173338E-2</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O22" s="1">
         <f t="shared" si="2"/>
         <v>4.2772826605385388E-2</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P22" s="1">
         <f t="shared" si="2"/>
         <v>4.4056011403546952E-2</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q22" s="1">
         <f t="shared" si="2"/>
         <v>4.5377691745653356E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2">
         <v>18000</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F23" s="2">
         <v>18000</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G23" s="2">
         <v>18000</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H23" s="2">
         <v>18000</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I23" s="2">
         <v>18000</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J23" s="2">
         <v>18000</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K23" s="2">
         <v>18000</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L23" s="2">
         <v>18000</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M23" s="2">
         <v>18000</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N23" s="2">
         <v>18000</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O23" s="2">
         <v>18000</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P23" s="2">
         <v>18000</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q23" s="2">
         <v>18000</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="2">
-        <f>C20*0.5</f>
+      <c r="C24" s="2">
+        <f>C22*0.5</f>
         <v>0</v>
       </c>
-      <c r="D22" s="2">
-        <f t="shared" ref="D22" si="3">D20*0.5</f>
+      <c r="D24" s="2">
+        <f t="shared" ref="D24" si="3">D22*0.5</f>
         <v>0</v>
       </c>
-      <c r="E22" s="2">
-        <f>0.5*(E21*E20)</f>
+      <c r="E24" s="2">
+        <f>0.5*(E23*E22)</f>
         <v>286.44299999999998</v>
       </c>
-      <c r="F22" s="2">
-        <f t="shared" ref="F22:Q22" si="4">0.5*(F21*F20)</f>
+      <c r="F24" s="2">
+        <f t="shared" ref="F24:Q24" si="4">0.5*(F23*F22)</f>
         <v>295.03629000000001</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G24" s="2">
         <f t="shared" si="4"/>
         <v>303.88737870000006</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H24" s="2">
         <f t="shared" si="4"/>
         <v>313.00400006100006</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I24" s="2">
         <f t="shared" si="4"/>
         <v>322.3941200628301</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J24" s="2">
         <f t="shared" si="4"/>
         <v>332.06594366471495</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K24" s="2">
         <f t="shared" si="4"/>
         <v>342.02792197465646</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L24" s="2">
         <f t="shared" si="4"/>
         <v>352.28875963389612</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M24" s="2">
         <f t="shared" si="4"/>
         <v>362.85742242291303</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N24" s="2">
         <f t="shared" si="4"/>
         <v>373.74314509560043</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O24" s="2">
         <f t="shared" si="4"/>
         <v>384.9554394484685</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P24" s="2">
         <f t="shared" si="4"/>
         <v>396.50410263192259</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q24" s="2">
         <f t="shared" si="4"/>
         <v>408.39922571088022</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="17">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="16">
         <v>0.08</v>
       </c>
-      <c r="E23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="2">
-        <f>NPV(C23,C22:XFD22)</f>
-        <v>2259.43802874522</v>
+      <c r="E25" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="2">
+        <f>NPV(C25,C24:XFD24)</f>
+        <v>2259.43802874522</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="1">
+        <f>(C26+Main!P5-Main!P6)/Main!P3</f>
+        <v>26.113460997137306</v>
+      </c>
+      <c r="D28" s="16">
+        <f>C28/Main!$P$2-1</f>
+        <v>3.9270681126674161</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="1">
-        <f>(C24+Main!P5-Main!P6)/Main!P3</f>
-        <v>26.113460997137306</v>
-      </c>
-      <c r="D26" s="17">
-        <f>C26/Main!$P$2-1</f>
-        <v>3.9270681126674161</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B27" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="21">
+      <c r="C29" s="20">
         <f>(Main!P5-Main!P6)/Main!P3</f>
         <v>0.72651685393258425</v>
       </c>
-      <c r="D27" s="17">
-        <f>C27/Main!$P$2-1</f>
+      <c r="D29" s="16">
+        <f>C29/Main!$P$2-1</f>
         <v>-0.86292134831460676</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="17">
-        <f>Main!P7/Efzofitimod!C24</f>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="16">
+        <f>Main!P7/Efzofitimod!C26</f>
         <v>0.18015099100817111</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B29" s="4"/>
-      <c r="C29" s="21"/>
-    </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="20"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>62</v>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{75E199C5-085C-4591-9985-1C0285F2B044}"/>
-    <hyperlink ref="B31" r:id="rId1" xr:uid="{09B8561B-1081-4C66-A0B0-65FBE17FC8BE}"/>
+    <hyperlink ref="B33" r:id="rId1" xr:uid="{09B8561B-1081-4C66-A0B0-65FBE17FC8BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA79540E-F705-4B35-B65E-10041AF49ADA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ATYR.xlsx
+++ b/ATYR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9B3245-7FB3-4165-8C32-ADCC2065DBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A2DA2A-7B8C-47DC-9A95-30ECA452F892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="1215" windowWidth="22200" windowHeight="14205" activeTab="3" xr2:uid="{1B6FF029-A03D-4586-8AFE-F39852695A08}"/>
+    <workbookView xWindow="1350" yWindow="1215" windowWidth="22200" windowHeight="14205" xr2:uid="{1B6FF029-A03D-4586-8AFE-F39852695A08}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="271">
   <si>
     <t>Price</t>
   </si>
@@ -852,6 +852,9 @@
   </si>
   <si>
     <t>Pathology</t>
+  </si>
+  <si>
+    <t>Phase III EFZOFIT data in Mid-September per press release</t>
   </si>
 </sst>
 </file>
@@ -1428,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79437250-B15D-47C9-85AE-E4EC02F4F4B5}">
   <dimension ref="B2:Q13"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1555,6 +1558,11 @@
       <c r="P7" s="2">
         <f>P4+P6-P5</f>
         <v>407.03999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
@@ -4021,8 +4029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B361690E-22BA-4E36-BAAB-A3F6AF4B864E}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
